--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Clcf1-Lifr.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Clcf1-Lifr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Lifr</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>3.10243930219526</v>
+        <v>1.679012</v>
       </c>
       <c r="H2">
-        <v>3.10243930219526</v>
+        <v>5.037036000000001</v>
       </c>
       <c r="I2">
-        <v>0.2614545559906646</v>
+        <v>0.1178149724053671</v>
       </c>
       <c r="J2">
-        <v>0.2614545559906646</v>
+        <v>0.1178149724053671</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.965187833089</v>
+        <v>26.31197333333334</v>
       </c>
       <c r="N2">
-        <v>16.965187833089</v>
+        <v>78.93592000000001</v>
       </c>
       <c r="O2">
-        <v>0.1667851205293457</v>
+        <v>0.2261559208386891</v>
       </c>
       <c r="P2">
-        <v>0.1667851205293457</v>
+        <v>0.2261559208386891</v>
       </c>
       <c r="Q2">
-        <v>52.63346550250015</v>
+        <v>44.17811897034668</v>
       </c>
       <c r="R2">
-        <v>52.63346550250015</v>
+        <v>397.6030707331201</v>
       </c>
       <c r="S2">
-        <v>0.04360672963384955</v>
+        <v>0.02664455357292056</v>
       </c>
       <c r="T2">
-        <v>0.04360672963384955</v>
+        <v>0.02664455357292055</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>3.10243930219526</v>
+        <v>1.679012</v>
       </c>
       <c r="H3">
-        <v>3.10243930219526</v>
+        <v>5.037036000000001</v>
       </c>
       <c r="I3">
-        <v>0.2614545559906646</v>
+        <v>0.1178149724053671</v>
       </c>
       <c r="J3">
-        <v>0.2614545559906646</v>
+        <v>0.1178149724053671</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>52.8295799177661</v>
+        <v>53.74150833333334</v>
       </c>
       <c r="N3">
-        <v>52.8295799177661</v>
+        <v>161.224525</v>
       </c>
       <c r="O3">
-        <v>0.5193687179174006</v>
+        <v>0.461917475759518</v>
       </c>
       <c r="P3">
-        <v>0.5193687179174006</v>
+        <v>0.461917475759518</v>
       </c>
       <c r="Q3">
-        <v>163.900565055343</v>
+        <v>90.23263738976668</v>
       </c>
       <c r="R3">
-        <v>163.900565055343</v>
+        <v>812.0937365079001</v>
       </c>
       <c r="S3">
-        <v>0.1357913175385347</v>
+        <v>0.05442079466016447</v>
       </c>
       <c r="T3">
-        <v>0.1357913175385347</v>
+        <v>0.05442079466016446</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>3.10243930219526</v>
+        <v>1.679012</v>
       </c>
       <c r="H4">
-        <v>3.10243930219526</v>
+        <v>5.037036000000001</v>
       </c>
       <c r="I4">
-        <v>0.2614545559906646</v>
+        <v>0.1178149724053671</v>
       </c>
       <c r="J4">
-        <v>0.2614545559906646</v>
+        <v>0.1178149724053671</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.8471428774534</v>
+        <v>21.978693</v>
       </c>
       <c r="N4">
-        <v>17.8471428774534</v>
+        <v>65.93607899999999</v>
       </c>
       <c r="O4">
-        <v>0.1754556392305228</v>
+        <v>0.1889106336220259</v>
       </c>
       <c r="P4">
-        <v>0.1754556392305228</v>
+        <v>0.1889106336220259</v>
       </c>
       <c r="Q4">
-        <v>55.36967749490563</v>
+        <v>36.90248929131599</v>
       </c>
       <c r="R4">
-        <v>55.36967749490563</v>
+        <v>332.122403621844</v>
       </c>
       <c r="S4">
-        <v>0.04587367625107457</v>
+        <v>0.02225650108725941</v>
       </c>
       <c r="T4">
-        <v>0.04587367625107457</v>
+        <v>0.02225650108725941</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>3.10243930219526</v>
+        <v>1.679012</v>
       </c>
       <c r="H5">
-        <v>3.10243930219526</v>
+        <v>5.037036000000001</v>
       </c>
       <c r="I5">
-        <v>0.2614545559906646</v>
+        <v>0.1178149724053671</v>
       </c>
       <c r="J5">
-        <v>0.2614545559906646</v>
+        <v>0.1178149724053671</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.076922438122</v>
+        <v>14.31221833333333</v>
       </c>
       <c r="N5">
-        <v>14.076922438122</v>
+        <v>42.936655</v>
       </c>
       <c r="O5">
-        <v>0.138390522322731</v>
+        <v>0.123015969779767</v>
       </c>
       <c r="P5">
-        <v>0.138390522322731</v>
+        <v>0.123015969779767</v>
       </c>
       <c r="Q5">
-        <v>43.67279742598402</v>
+        <v>24.03038632828667</v>
       </c>
       <c r="R5">
-        <v>43.67279742598402</v>
+        <v>216.27347695458</v>
       </c>
       <c r="S5">
-        <v>0.03618283256720579</v>
+        <v>0.01449312308502273</v>
       </c>
       <c r="T5">
-        <v>0.03618283256720579</v>
+        <v>0.01449312308502273</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.3333170274568</v>
+        <v>3.197979</v>
       </c>
       <c r="H6">
-        <v>1.3333170274568</v>
+        <v>9.593937</v>
       </c>
       <c r="I6">
-        <v>0.1123637813516102</v>
+        <v>0.2243997110431275</v>
       </c>
       <c r="J6">
-        <v>0.1123637813516102</v>
+        <v>0.2243997110431275</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.965187833089</v>
+        <v>26.31197333333334</v>
       </c>
       <c r="N6">
-        <v>16.965187833089</v>
+        <v>78.93592000000001</v>
       </c>
       <c r="O6">
-        <v>0.1667851205293457</v>
+        <v>0.2261559208386891</v>
       </c>
       <c r="P6">
-        <v>0.1667851205293457</v>
+        <v>0.2261559208386891</v>
       </c>
       <c r="Q6">
-        <v>22.6199738118605</v>
+        <v>84.14513816856002</v>
       </c>
       <c r="R6">
-        <v>22.6199738118605</v>
+        <v>757.3062435170401</v>
       </c>
       <c r="S6">
-        <v>0.01874060681586135</v>
+        <v>0.05074932328689426</v>
       </c>
       <c r="T6">
-        <v>0.01874060681586135</v>
+        <v>0.05074932328689425</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.3333170274568</v>
+        <v>3.197979</v>
       </c>
       <c r="H7">
-        <v>1.3333170274568</v>
+        <v>9.593937</v>
       </c>
       <c r="I7">
-        <v>0.1123637813516102</v>
+        <v>0.2243997110431275</v>
       </c>
       <c r="J7">
-        <v>0.1123637813516102</v>
+        <v>0.2243997110431275</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>52.8295799177661</v>
+        <v>53.74150833333334</v>
       </c>
       <c r="N7">
-        <v>52.8295799177661</v>
+        <v>161.224525</v>
       </c>
       <c r="O7">
-        <v>0.5193687179174006</v>
+        <v>0.461917475759518</v>
       </c>
       <c r="P7">
-        <v>0.5193687179174006</v>
+        <v>0.461917475759518</v>
       </c>
       <c r="Q7">
-        <v>70.43857845774735</v>
+        <v>171.864215078325</v>
       </c>
       <c r="R7">
-        <v>70.43857845774735</v>
+        <v>1546.777935704925</v>
       </c>
       <c r="S7">
-        <v>0.05835823306093693</v>
+        <v>0.1036541480862067</v>
       </c>
       <c r="T7">
-        <v>0.05835823306093693</v>
+        <v>0.1036541480862067</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.3333170274568</v>
+        <v>3.197979</v>
       </c>
       <c r="H8">
-        <v>1.3333170274568</v>
+        <v>9.593937</v>
       </c>
       <c r="I8">
-        <v>0.1123637813516102</v>
+        <v>0.2243997110431275</v>
       </c>
       <c r="J8">
-        <v>0.1123637813516102</v>
+        <v>0.2243997110431275</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.8471428774534</v>
+        <v>21.978693</v>
       </c>
       <c r="N8">
-        <v>17.8471428774534</v>
+        <v>65.93607899999999</v>
       </c>
       <c r="O8">
-        <v>0.1754556392305228</v>
+        <v>0.1889106336220259</v>
       </c>
       <c r="P8">
-        <v>0.1754556392305228</v>
+        <v>0.1889106336220259</v>
       </c>
       <c r="Q8">
-        <v>23.79589948996297</v>
+        <v>70.28739866144699</v>
       </c>
       <c r="R8">
-        <v>23.79589948996297</v>
+        <v>632.5865879530229</v>
       </c>
       <c r="S8">
-        <v>0.01971485908340547</v>
+        <v>0.04239149159775674</v>
       </c>
       <c r="T8">
-        <v>0.01971485908340547</v>
+        <v>0.04239149159775674</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.3333170274568</v>
+        <v>3.197979</v>
       </c>
       <c r="H9">
-        <v>1.3333170274568</v>
+        <v>9.593937</v>
       </c>
       <c r="I9">
-        <v>0.1123637813516102</v>
+        <v>0.2243997110431275</v>
       </c>
       <c r="J9">
-        <v>0.1123637813516102</v>
+        <v>0.2243997110431275</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.076922438122</v>
+        <v>14.31221833333333</v>
       </c>
       <c r="N9">
-        <v>14.076922438122</v>
+        <v>42.936655</v>
       </c>
       <c r="O9">
-        <v>0.138390522322731</v>
+        <v>0.123015969779767</v>
       </c>
       <c r="P9">
-        <v>0.138390522322731</v>
+        <v>0.123015969779767</v>
       </c>
       <c r="Q9">
-        <v>18.76900038093676</v>
+        <v>45.770173673415</v>
       </c>
       <c r="R9">
-        <v>18.76900038093676</v>
+        <v>411.931563060735</v>
       </c>
       <c r="S9">
-        <v>0.01555008239140649</v>
+        <v>0.02760474807226982</v>
       </c>
       <c r="T9">
-        <v>0.01555008239140649</v>
+        <v>0.02760474807226981</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.4303184091872</v>
+        <v>1.919382666666667</v>
       </c>
       <c r="H10">
-        <v>7.4303184091872</v>
+        <v>5.758148</v>
       </c>
       <c r="I10">
-        <v>0.6261816626577252</v>
+        <v>0.134681596027112</v>
       </c>
       <c r="J10">
-        <v>0.6261816626577252</v>
+        <v>0.134681596027112</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.965187833089</v>
+        <v>26.31197333333334</v>
       </c>
       <c r="N10">
-        <v>16.965187833089</v>
+        <v>78.93592000000001</v>
       </c>
       <c r="O10">
-        <v>0.1667851205293457</v>
+        <v>0.2261559208386891</v>
       </c>
       <c r="P10">
-        <v>0.1667851205293457</v>
+        <v>0.2261559208386891</v>
       </c>
       <c r="Q10">
-        <v>126.0567474715199</v>
+        <v>50.50274554179556</v>
       </c>
       <c r="R10">
-        <v>126.0567474715199</v>
+        <v>454.5247098761601</v>
       </c>
       <c r="S10">
-        <v>0.1044377840796348</v>
+        <v>0.03045904036953584</v>
       </c>
       <c r="T10">
-        <v>0.1044377840796348</v>
+        <v>0.03045904036953584</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.4303184091872</v>
+        <v>1.919382666666667</v>
       </c>
       <c r="H11">
-        <v>7.4303184091872</v>
+        <v>5.758148</v>
       </c>
       <c r="I11">
-        <v>0.6261816626577252</v>
+        <v>0.134681596027112</v>
       </c>
       <c r="J11">
-        <v>0.6261816626577252</v>
+        <v>0.134681596027112</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>52.8295799177661</v>
+        <v>53.74150833333334</v>
       </c>
       <c r="N11">
-        <v>52.8295799177661</v>
+        <v>161.224525</v>
       </c>
       <c r="O11">
-        <v>0.5193687179174006</v>
+        <v>0.461917475759518</v>
       </c>
       <c r="P11">
-        <v>0.5193687179174006</v>
+        <v>0.461917475759518</v>
       </c>
       <c r="Q11">
-        <v>392.5406002126039</v>
+        <v>103.1505195755222</v>
       </c>
       <c r="R11">
-        <v>392.5406002126039</v>
+        <v>928.3546761797</v>
       </c>
       <c r="S11">
-        <v>0.325219167317929</v>
+        <v>0.06221178286810669</v>
       </c>
       <c r="T11">
-        <v>0.325219167317929</v>
+        <v>0.06221178286810668</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.4303184091872</v>
+        <v>1.919382666666667</v>
       </c>
       <c r="H12">
-        <v>7.4303184091872</v>
+        <v>5.758148</v>
       </c>
       <c r="I12">
-        <v>0.6261816626577252</v>
+        <v>0.134681596027112</v>
       </c>
       <c r="J12">
-        <v>0.6261816626577252</v>
+        <v>0.134681596027112</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.8471428774534</v>
+        <v>21.978693</v>
       </c>
       <c r="N12">
-        <v>17.8471428774534</v>
+        <v>65.93607899999999</v>
       </c>
       <c r="O12">
-        <v>0.1754556392305228</v>
+        <v>0.1889106336220259</v>
       </c>
       <c r="P12">
-        <v>0.1754556392305228</v>
+        <v>0.1889106336220259</v>
       </c>
       <c r="Q12">
-        <v>132.6099542737362</v>
+        <v>42.18552238018799</v>
       </c>
       <c r="R12">
-        <v>132.6099542737362</v>
+        <v>379.669701421692</v>
       </c>
       <c r="S12">
-        <v>0.1098671038960428</v>
+        <v>0.02544278564270745</v>
       </c>
       <c r="T12">
-        <v>0.1098671038960428</v>
+        <v>0.02544278564270745</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.919382666666667</v>
+      </c>
+      <c r="H13">
+        <v>5.758148</v>
+      </c>
+      <c r="I13">
+        <v>0.134681596027112</v>
+      </c>
+      <c r="J13">
+        <v>0.134681596027112</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>14.31221833333333</v>
+      </c>
+      <c r="N13">
+        <v>42.936655</v>
+      </c>
+      <c r="O13">
+        <v>0.123015969779767</v>
+      </c>
+      <c r="P13">
+        <v>0.123015969779767</v>
+      </c>
+      <c r="Q13">
+        <v>27.47062379054889</v>
+      </c>
+      <c r="R13">
+        <v>247.23561411494</v>
+      </c>
+      <c r="S13">
+        <v>0.01656798714676199</v>
+      </c>
+      <c r="T13">
+        <v>0.01656798714676199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>7.454888</v>
+      </c>
+      <c r="H14">
+        <v>22.364664</v>
+      </c>
+      <c r="I14">
+        <v>0.5231037205243934</v>
+      </c>
+      <c r="J14">
+        <v>0.5231037205243932</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>26.31197333333334</v>
+      </c>
+      <c r="N14">
+        <v>78.93592000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.2261559208386891</v>
+      </c>
+      <c r="P14">
+        <v>0.2261559208386891</v>
+      </c>
+      <c r="Q14">
+        <v>196.1528142589867</v>
+      </c>
+      <c r="R14">
+        <v>1765.37532833088</v>
+      </c>
+      <c r="S14">
+        <v>0.1183030036093385</v>
+      </c>
+      <c r="T14">
+        <v>0.1183030036093384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>7.454888</v>
+      </c>
+      <c r="H15">
+        <v>22.364664</v>
+      </c>
+      <c r="I15">
+        <v>0.5231037205243934</v>
+      </c>
+      <c r="J15">
+        <v>0.5231037205243932</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>53.74150833333334</v>
+      </c>
+      <c r="N15">
+        <v>161.224525</v>
+      </c>
+      <c r="O15">
+        <v>0.461917475759518</v>
+      </c>
+      <c r="P15">
+        <v>0.461917475759518</v>
+      </c>
+      <c r="Q15">
+        <v>400.6369255760667</v>
+      </c>
+      <c r="R15">
+        <v>3605.7323301846</v>
+      </c>
+      <c r="S15">
+        <v>0.2416307501450402</v>
+      </c>
+      <c r="T15">
+        <v>0.2416307501450401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>7.4303184091872</v>
-      </c>
-      <c r="H13">
-        <v>7.4303184091872</v>
-      </c>
-      <c r="I13">
-        <v>0.6261816626577252</v>
-      </c>
-      <c r="J13">
-        <v>0.6261816626577252</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>14.076922438122</v>
-      </c>
-      <c r="N13">
-        <v>14.076922438122</v>
-      </c>
-      <c r="O13">
-        <v>0.138390522322731</v>
-      </c>
-      <c r="P13">
-        <v>0.138390522322731</v>
-      </c>
-      <c r="Q13">
-        <v>104.5960159366783</v>
-      </c>
-      <c r="R13">
-        <v>104.5960159366783</v>
-      </c>
-      <c r="S13">
-        <v>0.08665760736411875</v>
-      </c>
-      <c r="T13">
-        <v>0.08665760736411875</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>7.454888</v>
+      </c>
+      <c r="H16">
+        <v>22.364664</v>
+      </c>
+      <c r="I16">
+        <v>0.5231037205243934</v>
+      </c>
+      <c r="J16">
+        <v>0.5231037205243932</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>21.978693</v>
+      </c>
+      <c r="N16">
+        <v>65.93607899999999</v>
+      </c>
+      <c r="O16">
+        <v>0.1889106336220259</v>
+      </c>
+      <c r="P16">
+        <v>0.1889106336220259</v>
+      </c>
+      <c r="Q16">
+        <v>163.848694701384</v>
+      </c>
+      <c r="R16">
+        <v>1474.638252312456</v>
+      </c>
+      <c r="S16">
+        <v>0.09881985529430232</v>
+      </c>
+      <c r="T16">
+        <v>0.09881985529430229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>7.454888</v>
+      </c>
+      <c r="H17">
+        <v>22.364664</v>
+      </c>
+      <c r="I17">
+        <v>0.5231037205243934</v>
+      </c>
+      <c r="J17">
+        <v>0.5231037205243932</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>14.31221833333333</v>
+      </c>
+      <c r="N17">
+        <v>42.936655</v>
+      </c>
+      <c r="O17">
+        <v>0.123015969779767</v>
+      </c>
+      <c r="P17">
+        <v>0.123015969779767</v>
+      </c>
+      <c r="Q17">
+        <v>106.6959847065467</v>
+      </c>
+      <c r="R17">
+        <v>960.2638623589201</v>
+      </c>
+      <c r="S17">
+        <v>0.06435011147571246</v>
+      </c>
+      <c r="T17">
+        <v>0.06435011147571243</v>
       </c>
     </row>
   </sheetData>
